--- a/unsteady/test_cases/trench_slant/results.xlsx
+++ b/unsteady/test_cases/trench_slant/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/trench_slant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED1383-91B6-C74A-BBAC-19CC0C6E9179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8FD9A-2537-F348-BD94-67AA7D681E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{99851520-B8AF-3C4E-A645-70398CB9E897}"/>
   </bookViews>
@@ -625,13 +625,39 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4">
+        <v>395.07</v>
+      </c>
+      <c r="B4" s="1">
+        <v>397</v>
+      </c>
+      <c r="C4" s="1">
+        <v>398.6</v>
+      </c>
+      <c r="D4">
+        <v>403</v>
+      </c>
+      <c r="E4">
+        <v>437</v>
+      </c>
+      <c r="F4" s="1">
+        <v>482</v>
+      </c>
+      <c r="G4" s="1">
+        <v>773.63</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1253.6559999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7361</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15247</v>
+      </c>
+      <c r="K4" s="1">
+        <v>118958</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D5" t="s">

--- a/unsteady/test_cases/trench_slant/results.xlsx
+++ b/unsteady/test_cases/trench_slant/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/trench_slant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12736CB1-19E5-EC48-A41D-96207301387D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACAF307-871A-1344-BD34-55BF464B5C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13060" windowHeight="16000" activeTab="3" xr2:uid="{99851520-B8AF-3C4E-A645-70398CB9E897}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13060" windowHeight="16000" firstSheet="3" activeTab="7" xr2:uid="{99851520-B8AF-3C4E-A645-70398CB9E897}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>alpha</t>
   </si>
@@ -75,12 +75,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>div</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,12 +95,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -115,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,17 +178,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -199,6 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0DB338-12E4-B84F-A75D-0D9DC9E6B673}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE69359-65C4-E347-A123-29BAA95554DA}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H11"/>
     </sheetView>
   </sheetViews>
@@ -2855,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2889EEB4-CF5B-4142-8BCC-C2D15285107C}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="G7:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2900,7 +2925,12 @@
       <c r="C3">
         <v>0.25</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3">
+        <v>2.24070326814714E-2</v>
+      </c>
+      <c r="F3">
+        <v>403</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
@@ -2909,7 +2939,12 @@
       <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4">
+        <v>2.24070326814714E-2</v>
+      </c>
+      <c r="F4">
+        <v>403</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
@@ -2918,7 +2953,12 @@
       <c r="C5">
         <v>0.75</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5">
+        <v>2.24070326814714E-2</v>
+      </c>
+      <c r="F5">
+        <v>403</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
@@ -2927,7 +2967,12 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6">
+        <v>2.24070326814714E-2</v>
+      </c>
+      <c r="F6">
+        <v>403</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3445,6 +3490,12 @@
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27" s="1">
+        <v>1.9308366330355702E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>666.79999613761902</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
@@ -3549,14 +3600,26 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
+      <c r="E32" s="1">
+        <v>1.9396635850567299E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>681.64984941482498</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
+        <v>1.93395103384921E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>666.55223941802899</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
         <v>12</v>
       </c>
@@ -3574,7 +3637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <v>12</v>
       </c>
@@ -3584,15 +3647,26 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>1.9265598981712501E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>653.82127022743202</v>
+      </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <v>1.93495613957964E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>653.80838584899902</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <v>12</v>
       </c>
@@ -3610,7 +3684,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <v>12</v>
       </c>
@@ -3620,31 +3694,42 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>1.90847811294758E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>642.89705753326405</v>
+      </c>
       <c r="G36" s="12">
         <v>1</v>
       </c>
       <c r="H36" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="1">
+        <v>1.90847811294758E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>642.89705753326405</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="E41" s="1"/>
     </row>
@@ -3657,13 +3742,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04991134-ABBB-5C45-8321-ABA89FC8486C}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3679,53 +3764,104 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8.3682876922006096E-3</v>
+      </c>
+      <c r="F2">
+        <v>437</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8.3682876922006096E-3</v>
+      </c>
+      <c r="F3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8.3682876922006096E-3</v>
+      </c>
+      <c r="F4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
       <c r="C5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8.3682876922006096E-3</v>
+      </c>
+      <c r="F5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8.3682876922006096E-3</v>
+      </c>
+      <c r="F6">
+        <v>437</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3733,11 +3869,28 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>8.2401291767346292E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>843.66188716888405</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7.8905515723466397E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>793.96813726425103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -3746,10 +3899,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -3757,15 +3916,28 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3" t="str">
-        <f>IF(E12&lt;E7, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>7.9669042274370192E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>821.24362206459</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.8900461319528804E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>779.35576105117798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0.75</v>
@@ -3774,14 +3946,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" t="str">
-        <f t="shared" ref="F10:F28" si="0">IF(E13&lt;E8, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3789,15 +3963,28 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <v>7.8794222139386399E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>793.187096118927</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7.8794222139386399E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>793.187096118927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -3805,15 +3992,28 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>8.4724434992353801E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>872.08717656135502</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.7580786552690099E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>794.72796797752301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -3822,14 +4022,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -3837,15 +4039,28 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>7.9170057376896693E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>824.42591381072998</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.7578732880305302E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>785.19397115707397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0.75</v>
@@ -3854,14 +4069,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3869,14 +4086,28 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="E16" s="1">
+        <v>7.738607399772E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>813.24165964126496</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.738607399772E-3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>813.24165964126496</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -3884,15 +4115,28 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="E17" s="1">
+        <v>8.6223541749789901E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>865.90092730522099</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.7215424788253098E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>776.04997873306195</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0.25</v>
@@ -3901,14 +4145,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -3916,15 +4162,28 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="E19" s="1">
+        <v>7.9270571157358301E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>853.72639751434303</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7.7214915218562601E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>766.92531561851501</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -3933,15 +4192,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.75</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3949,16 +4210,28 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="I21" s="1"/>
+      <c r="E21" s="1">
+        <v>7.7082438916784499E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>775.82601737975995</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7.7082438916784499E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>775.82601737975995</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -3966,15 +4239,28 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="E22" s="1">
+        <v>8.7623592106775595E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>870.81002593040398</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7.7156792924838796E-3</v>
+      </c>
+      <c r="J22" s="11">
+        <v>761.31871032714798</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0.25</v>
@@ -3983,15 +4269,17 @@
         <v>1</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.25</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -3999,22 +4287,28 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1"/>
+      <c r="E24" s="1">
+        <v>7.8641152659465405E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>828.25463461875904</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7.7154600349723804E-3</v>
+      </c>
+      <c r="J24">
+        <v>754.27986717224098</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>0.75</v>
@@ -4023,21 +4317,17 @@
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4045,22 +4335,28 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="1"/>
+      <c r="E26" s="2">
+        <v>7.6990398313660597E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>756.23900437354996</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7.6990398313660597E-3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>756.23900437354996</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -4068,16 +4364,28 @@
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="I27" s="1"/>
+      <c r="E27" s="1">
+        <v>8.8942379731584299E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>868.81666445732105</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7.7203157734160701E-3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>735.64050412178005</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>0.25</v>
@@ -4085,15 +4393,17 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.25</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>0.5</v>
@@ -4101,13 +4411,29 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="1">
+        <v>7.8660474205988606E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>786.88776016235295</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7.7204555710398701E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>726.64914274215698</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>0.75</v>
@@ -4116,11 +4442,17 @@
         <v>1</v>
       </c>
       <c r="E30" s="1"/>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.75</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4128,27 +4460,29 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31">
-        <v>375</v>
-      </c>
-      <c r="G31">
-        <v>400</v>
-      </c>
-      <c r="H31">
-        <v>425</v>
-      </c>
-      <c r="I31">
-        <v>450</v>
-      </c>
-      <c r="J31">
-        <v>325</v>
+      <c r="E31" s="1">
+        <v>7.7005638192452998E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>734.32018160819996</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7.7005638192452998E-3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>734.32018160819996</v>
       </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -4156,15 +4490,28 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <v>8.9708263927645408E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>838.30077171325604</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7.7227363719045402E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>727.51826643943696</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>0.25</v>
@@ -4173,14 +4520,19 @@
         <v>1</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="5" t="str">
-        <f>IF(E36&lt;E31, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -4188,15 +4540,28 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" t="str">
-        <f>IF(E37&lt;E32, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>7.85283870706582E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>773.72625637054398</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7.7234374807343001E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>715.55751395225502</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>0.75</v>
@@ -4204,15 +4569,17 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="str">
-        <f t="shared" ref="F35:F38" si="1">IF(E38&lt;E33, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4220,78 +4587,45 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
-        <v>350</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
+      <c r="E36" s="1">
+        <v>7.7023441113339402E-3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>720.771690368652</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7.7023441113339402E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>720.771690368652</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
-        <v>350</v>
-      </c>
-      <c r="C38">
-        <v>0.25</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
       <c r="E38" s="1"/>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="7">
-        <v>350</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="7">
-        <v>350</v>
-      </c>
-      <c r="C40">
-        <v>0.75</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="7">
-        <v>350</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
       <c r="E41" s="1"/>
     </row>
   </sheetData>
@@ -4301,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8FE558-85A7-3C4B-8605-F72FABC027AC}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4312,11 +4646,11 @@
     <col min="4" max="4" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -4327,12 +4661,12 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0.5</v>
       </c>
-      <c r="B2" s="8">
-        <v>50</v>
+      <c r="B2" s="7">
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -4340,11 +4674,16 @@
       <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>6.8232417175376299E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.25</v>
@@ -4354,9 +4693,9 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -4366,9 +4705,9 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -4378,9 +4717,9 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4390,9 +4729,9 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -4400,18 +4739,28 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="11">
-        <v>1</v>
+      <c r="E7" s="1">
+        <v>7.4126604545273799E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>956.37747097015301</v>
       </c>
       <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6.22162085765282E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>871.41845893859795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -4420,17 +4769,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
       <c r="G8" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -4438,18 +4786,28 @@
       <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="11">
-        <v>1</v>
+      <c r="E9" s="1">
+        <v>7.0206756310416899E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>916.42605733871403</v>
       </c>
       <c r="G9" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.2545474165659198E-3</v>
+      </c>
+      <c r="J9" s="13">
+        <v>867.45624470710698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0.75</v>
@@ -4458,55 +4816,74 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
       <c r="G10" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6.4280396053565001E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>883.97593641281105</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6.4280396053565001E-3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>883.97593641281105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="11">
-        <v>1</v>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.4455098884455206E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>971.09201955795197</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.1472092189552002E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>871.40355753898598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -4514,17 +4891,16 @@
       <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
       <c r="G13" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -4532,17 +4908,28 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="11">
-        <v>1</v>
+      <c r="E14" s="1">
+        <v>7.4030194490170504E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>909.51794242858796</v>
       </c>
       <c r="G14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.1775719993979704E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>869.07865381240799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0.75</v>
@@ -4551,17 +4938,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
       <c r="G15" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4569,18 +4955,28 @@
       <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="E16" s="16">
+        <v>6.4350158993385798E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>875.84981274604797</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>6.4350158993385798E-3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>875.84981274604797</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -4588,18 +4984,28 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="11">
-        <v>1</v>
+      <c r="E17" s="1">
+        <v>9.0999177651356206E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>958.83606576919499</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6.1336624761447502E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>862.45954847335804</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0.25</v>
@@ -4607,17 +5013,16 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
       <c r="G18" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -4625,17 +5030,28 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="11">
-        <v>1</v>
+      <c r="E19" s="1">
+        <v>7.6186556235763401E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>908.314961671829</v>
       </c>
       <c r="G19" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6.1604626068974596E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>858.49622273445095</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -4643,17 +5059,16 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
       <c r="G20" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4661,16 +5076,28 @@
       <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
+      <c r="E21" s="16">
+        <v>6.4636772513620502E-3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>865.19100451469399</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>6.4636772513620502E-3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>865.19100451469399</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -4678,18 +5105,28 @@
       <c r="D22" s="10">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="11">
-        <v>1</v>
+      <c r="E22" s="1">
+        <v>9.4748443174309197E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>947.94500350952103</v>
       </c>
       <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.1352221893820396E-3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>849.01878571510304</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0.25</v>
@@ -4697,17 +5134,16 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
       <c r="G23" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -4715,17 +5151,28 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
-        <v>1</v>
+      <c r="E24" s="1">
+        <v>7.7686654213497E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>877.12552475929203</v>
       </c>
       <c r="G24" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.1581463838330901E-3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>843.12019014358498</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>0.75</v>
@@ -4733,16 +5180,16 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
       <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4750,16 +5197,28 @@
       <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
+      <c r="E26" s="16">
+        <v>6.4767564479306398E-3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>832.98860573768604</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>6.4767564479306398E-3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>832.98860573768604</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -4767,18 +5226,28 @@
       <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="11">
-        <v>1</v>
+      <c r="E27" s="1">
+        <v>9.67279848779002E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>929.33059501647904</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6.13677130521793E-3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>833.81384038925103</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>0.25</v>
@@ -4786,17 +5255,16 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
       <c r="G28" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>0.5</v>
@@ -4804,17 +5272,28 @@
       <c r="D29" s="9">
         <v>1</v>
       </c>
-      <c r="F29" s="11">
-        <v>1</v>
+      <c r="E29" s="1">
+        <v>7.8656036484751404E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>866.05406928062405</v>
       </c>
       <c r="G29" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6.1578084170688802E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>825.39906406402497</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>0.75</v>
@@ -4822,16 +5301,16 @@
       <c r="D30" s="9">
         <v>1</v>
       </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
       <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4839,22 +5318,28 @@
       <c r="D31" s="9">
         <v>1</v>
       </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11">
-        <v>325</v>
-      </c>
-      <c r="J31" s="11">
-        <v>375</v>
+      <c r="E31" s="1">
+        <v>6.4981343105821304E-3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>828.41463541984501</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>6.4981343105821304E-3</v>
+      </c>
+      <c r="J31" s="6">
+        <v>828.41463541984501</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -4862,20 +5347,28 @@
       <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="11">
-        <v>1</v>
+      <c r="E32" s="1">
+        <v>9.7851494929376906E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>922.02649712562504</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6.1418585123755899E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>816.66123223304703</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>0.25</v>
@@ -4883,19 +5376,18 @@
       <c r="D33" s="9">
         <v>1</v>
       </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
       <c r="G33" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.25</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -4903,16 +5395,28 @@
       <c r="D34" s="9">
         <v>1</v>
       </c>
-      <c r="F34" s="11">
-        <v>1</v>
+      <c r="E34" s="1">
+        <v>7.9431932493034992E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>851.36762690544106</v>
       </c>
       <c r="G34" s="11">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6.16032644170316E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>822.35697889328003</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>0.75</v>
@@ -4920,16 +5424,16 @@
       <c r="D35" s="9">
         <v>1</v>
       </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
       <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4937,12 +5441,39 @@
       <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="F36" s="11">
-        <v>1</v>
+      <c r="E36" s="1">
+        <v>6.5061609944376203E-3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>817.81648230552605</v>
       </c>
       <c r="G36" s="11">
         <v>1</v>
       </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6.5061609944376203E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>817.81648230552605</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4951,19 +5482,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D6CE86-C2A8-B84A-BA1F-DA65306C40F8}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:G41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -4972,76 +5503,107 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5.1325959577882604E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>773.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>0</v>
       </c>
       <c r="C5">
         <v>0.75</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.8</v>
       </c>
       <c r="B7" s="8">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.9570424220715696E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1279.1700038909901</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.6482107652274099E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1160.17934775352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -5050,10 +5612,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -5061,11 +5629,28 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>4.9003322286983496E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1159.2292778491901</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.64931805701547E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1170.20608115196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0.75</v>
@@ -5074,10 +5659,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5085,11 +5676,28 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <v>4.7902634498355901E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1173.09221053123</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.7902634498355901E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1173.09221053123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -5097,15 +5705,28 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" t="str">
-        <f>IF(E12&lt;E7, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>5.06603890167705E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1372.76158809661</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.51736852185776E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1261.10831975936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -5114,14 +5735,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" t="str">
-        <f t="shared" ref="F13:F37" si="0">IF(E13&lt;E8, "True", "False")</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -5129,15 +5752,28 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>4.8028246925635202E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1251.54500627517</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.5182197661028604E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1235.38547158241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0.75</v>
@@ -5146,14 +5782,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5161,15 +5799,28 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>4.6600819444879097E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1234.31266832351</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.6600819444879097E-3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1234.31266832351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -5177,16 +5828,28 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <v>5.2088654925591497E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1483.88491153717</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.4584284111651397E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1234.4680731296501</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0.25</v>
@@ -5195,14 +5858,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -5210,15 +5878,28 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <v>4.7586763221273802E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1293.50286245346</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4.4593349199122398E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1254.3483977317801</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -5227,14 +5908,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5242,15 +5925,28 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <v>4.5949459860950099E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1283.42860698699</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.5949459860950099E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1283.42860698699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -5258,16 +5954,28 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <v>5.40035528049894E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1603.88365674018</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.4242419068332099E-3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1325.10463023185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0.25</v>
@@ -5276,15 +5984,17 @@
         <v>1</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.25</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -5292,16 +6002,28 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <v>4.7296312801318003E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1327.9606349468199</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.4252608354130802E-3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1310.6215012073501</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>0.75</v>
@@ -5310,15 +6032,17 @@
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.75</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5326,15 +6050,28 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <v>4.56351628287756E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1324.4640285968701</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4.56351628287756E-3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1324.4640285968701</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -5342,22 +6079,28 @@
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <v>5.5189992322543799E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1716.71903395652</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4.4017222688097499E-3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1341.52426838874</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>0.25</v>
@@ -5366,21 +6109,17 @@
         <v>1</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
         <v>0.25</v>
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>0.5</v>
@@ -5388,22 +6127,28 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="1">
+        <v>4.70760306287012E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1340.7217540740901</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4.4030927977982701E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1324.1642813682499</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>0.75</v>
@@ -5412,21 +6157,17 @@
         <v>1</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
         <v>0.75</v>
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5434,21 +6175,28 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E31" s="1">
+        <v>4.54039719283395E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1326.5851724147701</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4.54039719283395E-3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1326.5851724147701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -5456,22 +6204,26 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4.3856506099084099E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1368.0832166671701</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>0.25</v>
@@ -5480,21 +6232,17 @@
         <v>1</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
         <v>0.25</v>
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -5502,22 +6250,28 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>4.6881885953166096E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1385.27647042274</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4.3870754864564201E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1329.4013040065699</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>0.75</v>
@@ -5526,21 +6280,17 @@
         <v>1</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
         <v>0.75</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <v>300</v>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="18">
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5548,21 +6298,28 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <v>4.5245818491983997E-3</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1336.6108942031799</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4.5245818491983997E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1336.6108942031799</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -5570,16 +6327,25 @@
       <c r="D37" s="3">
         <v>1</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4.3740481345294104E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1371.35608267784</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>0.25</v>
@@ -5588,16 +6354,17 @@
         <v>1</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" t="str">
-        <f>IF(G38&lt;E33, "True", "False")</f>
-        <v>False</v>
-      </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.25</v>
+      </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>0.5</v>
@@ -5605,17 +6372,28 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" t="str">
-        <f>IF(G39&lt;E34, "True", "False")</f>
-        <v>False</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E39" s="1">
+        <v>4.6754514454961198E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.6754514454961198E-3</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4.3753670578626502E-3</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1358.89620137214</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>0.75</v>
@@ -5624,16 +6402,17 @@
         <v>1</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" t="str">
-        <f>IF(G40&lt;E35, "True", "False")</f>
-        <v>False</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.75</v>
+      </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="7">
-        <v>350</v>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="18">
+        <v>14</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -5641,13 +6420,336 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" t="str">
-        <f>IF(G41&lt;E36, "True", "False")</f>
-        <v>False</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="E41" s="6">
+        <v>4.5116925529119899E-3</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1361.05610966682</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4.5116925529119899E-3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1361.05610966682</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4.3641719759768601E-3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1391.1637597084</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>0.25</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.3655909189194804E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1357.37182331085</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>0.75</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="18">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4.5013273040598401E-3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1369.3601429462401</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4.5013273040598401E-3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1369.3601429462401</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4.3568290829434702E-3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1482.11272192001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4.3582544611585998E-3</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1451.74011230468</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>0.75</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="18">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>4.4920074739456303E-3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1472.6443753242399</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4.4920074739456303E-3</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1472.6443753242399</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="8">
+        <v>20</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>0.25</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="7">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>0.75</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="18">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5658,13 +6760,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD68135E-1486-0345-A360-B5D100ABA6A2}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5679,12 +6781,12 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -5693,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
       <c r="C3">
         <v>0.25</v>
@@ -5702,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="C4">
         <v>0.5</v>
@@ -5711,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="7"/>
       <c r="C5">
         <v>0.75</v>
@@ -5720,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6">
         <v>1</v>
@@ -5728,10 +6830,12 @@
       <c r="D6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="18"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -5739,8 +6843,14 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8">
         <v>0.25</v>
@@ -5748,8 +6858,14 @@
       <c r="D8" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9">
         <v>0.5</v>
@@ -5757,8 +6873,14 @@
       <c r="D9" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10">
         <v>0.75</v>
@@ -5766,8 +6888,14 @@
       <c r="D10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11">
         <v>1</v>
@@ -5775,10 +6903,18 @@
       <c r="D11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -5786,8 +6922,14 @@
       <c r="D12" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13">
         <v>0.25</v>
@@ -5795,8 +6937,14 @@
       <c r="D13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14">
         <v>0.5</v>
@@ -5804,8 +6952,14 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15">
         <v>0.75</v>
@@ -5813,8 +6967,14 @@
       <c r="D15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16">
         <v>1</v>
@@ -5822,16 +6982,30 @@
       <c r="D16" s="9">
         <v>1</v>
       </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -5842,6 +7016,12 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
@@ -5851,6 +7031,12 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
@@ -5860,6 +7046,12 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
@@ -5869,16 +7061,30 @@
       <c r="D21" s="9">
         <v>1</v>
       </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -5889,6 +7095,12 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
@@ -5898,6 +7110,12 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
@@ -5907,6 +7125,12 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
@@ -5916,10 +7140,18 @@
       <c r="D26" s="9">
         <v>1</v>
       </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -5928,7 +7160,12 @@
         <v>1</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
@@ -5939,6 +7176,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="1"/>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
@@ -5949,7 +7192,12 @@
         <v>1</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
@@ -5960,7 +7208,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
@@ -5970,11 +7223,18 @@
       <c r="D31" s="9">
         <v>1</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -5982,8 +7242,14 @@
       <c r="D32" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33">
         <v>0.25</v>
@@ -5991,8 +7257,14 @@
       <c r="D33" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34">
         <v>0.5</v>
@@ -6000,8 +7272,14 @@
       <c r="D34" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35">
         <v>0.75</v>
@@ -6009,13 +7287,25 @@
       <c r="D35" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6029,7 +7319,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6114,6 +7404,12 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6126,6 +7422,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -6137,6 +7439,12 @@
       <c r="D9" s="9">
         <v>1</v>
       </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -6149,6 +7457,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -6161,6 +7475,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -6172,6 +7492,12 @@
       <c r="D12" s="10">
         <v>1</v>
       </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -6184,6 +7510,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="1"/>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -6195,8 +7527,12 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -6209,6 +7545,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -6221,8 +7563,14 @@
         <v>1</v>
       </c>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>150</v>
       </c>
@@ -6232,8 +7580,14 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>150</v>
       </c>
@@ -6244,8 +7598,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>150</v>
       </c>
@@ -6256,8 +7616,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>150</v>
       </c>
@@ -6268,8 +7634,14 @@
         <v>1</v>
       </c>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>150</v>
       </c>
@@ -6280,8 +7652,14 @@
         <v>1</v>
       </c>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>200</v>
       </c>
@@ -6291,8 +7669,14 @@
       <c r="D22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>200</v>
       </c>
@@ -6303,8 +7687,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <v>200</v>
       </c>
@@ -6315,8 +7705,14 @@
         <v>1</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <v>200</v>
       </c>
@@ -6327,8 +7723,14 @@
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <v>200</v>
       </c>
@@ -6339,8 +7741,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
         <v>250</v>
       </c>
@@ -6351,8 +7759,14 @@
         <v>1</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>250</v>
       </c>
@@ -6364,8 +7778,14 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>250</v>
       </c>
@@ -6377,8 +7797,14 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <v>250</v>
       </c>
@@ -6390,8 +7816,14 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>250</v>
       </c>
@@ -6402,8 +7834,14 @@
         <v>1</v>
       </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
         <v>300</v>
       </c>
@@ -6413,8 +7851,14 @@
       <c r="D32" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
         <v>300</v>
       </c>
@@ -6425,8 +7869,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <v>300</v>
       </c>
@@ -6438,8 +7888,14 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <v>300</v>
       </c>
@@ -6450,8 +7906,14 @@
         <v>1</v>
       </c>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <v>300</v>
       </c>
@@ -6462,8 +7924,14 @@
         <v>1</v>
       </c>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
         <v>350</v>
       </c>
@@ -6474,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
         <v>350</v>
       </c>
@@ -6486,7 +7954,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <v>350</v>
       </c>
@@ -6498,7 +7966,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
         <v>350</v>
       </c>
@@ -6510,7 +7978,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="7">
         <v>350</v>
       </c>

--- a/unsteady/test_cases/trench_slant/results.xlsx
+++ b/unsteady/test_cases/trench_slant/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/trench_slant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214A803-68D6-7F4C-8210-DFB1AD6BD2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3D72F-DBF3-2A4E-8E69-9AB64F802796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12400" windowHeight="15540" firstSheet="5" activeTab="10" xr2:uid="{99851520-B8AF-3C4E-A645-70398CB9E897}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12400" windowHeight="15540" xr2:uid="{99851520-B8AF-3C4E-A645-70398CB9E897}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0DB338-12E4-B84F-A75D-0D9DC9E6B673}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +721,7 @@
         <v>2.4227560083575801E-3</v>
       </c>
       <c r="K3" s="1">
-        <v>1.7214420284590601E-3</v>
+        <v>1.7327883487633399E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -766,9 +766,7 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
-        <v>4438.5816392898496</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J6" s="1"/>
@@ -1283,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B5618B-171F-3244-AF86-6C8AAE1E7940}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
